--- a/sprints/sprint4/Sprint Backlog - Sprint 4 Initial.xlsx
+++ b/sprints/sprint4/Sprint Backlog - Sprint 4 Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aznel\Documents\UWG\2021-2022\spring semester\capstone\CS4982Project\sprints\sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF8B046-E8FE-4FE0-B51C-DD599FD1E5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A239DAD1-8CF3-45CE-8516-DC78A1FB9741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05E88E3E-1050-42A3-92D1-D9699691A8E7}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -174,6 +171,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -336,10 +336,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1550,7 +1550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA91AA7-D066-42CA-8890-66069FB786FD}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1565,20 +1567,20 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1627,11 +1629,11 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8">
-        <v>13</v>
+      <c r="C3" s="7">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7">
+        <v>21</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1651,11 +1653,11 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9">
-        <v>13</v>
+      <c r="C4" s="8">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8">
+        <v>21</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1675,10 +1677,10 @@
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>13</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
@@ -1699,10 +1701,10 @@
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>8</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>8</v>
       </c>
       <c r="E6" s="6"/>
@@ -1719,52 +1721,52 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f>SUM(C3:C6)</f>
-        <v>47</v>
-      </c>
-      <c r="D7" s="11">
+        <v>63</v>
+      </c>
+      <c r="D7" s="10">
         <f>SUM(D3:D6)</f>
-        <v>47</v>
-      </c>
-      <c r="E7" s="11">
-        <f>SUM(E3:E4)</f>
+        <v>63</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:N7" si="0">SUM(E3:E4)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="11">
-        <f>SUM(F3:F4)</f>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="11">
-        <f>SUM(G3:G4)</f>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="11">
-        <f>SUM(H3:H4)</f>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="11">
-        <f>SUM(I3:I4)</f>
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="11">
-        <f>SUM(J3:J4)</f>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="11">
-        <f>SUM(K3:K4)</f>
+      <c r="K7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="11">
-        <f>SUM(L3:L4)</f>
+      <c r="L7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="11">
-        <f>SUM(M3:M4)</f>
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="11">
-        <f>SUM(N3:N4)</f>
+      <c r="N7" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
